--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="R9" s="2" t="inlineStr"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>A 54782-2022</t>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1074,6 +1074,63 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 45983-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SKURUP</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45196</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45196</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45196</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -572,7 +572,7 @@
         <v>43970</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43970</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43977</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43986</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44026</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44699</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44883</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45196</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
